--- a/Variables estudio.xlsx
+++ b/Variables estudio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Saturdays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubenms\proyecto_saturdays\AISaturdays-Prediccion-Ludopatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAA614A-D12F-4CF3-9944-D34BF94141B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC9A8CA-64D8-4515-85D3-A2EF257D5AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{970B58E7-ABDF-4BEA-AEA5-0408F25C4804}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{970B58E7-ABDF-4BEA-AEA5-0408F25C4804}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de correlaciones" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Variable Candidatas</t>
+  </si>
+  <si>
+    <t>P21: Tipo recompensa</t>
   </si>
 </sst>
 </file>
@@ -891,62 +894,62 @@
       <selection activeCell="B1" sqref="B1:B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="13.5703125" customWidth="1"/>
-    <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="13.5546875" customWidth="1"/>
+    <col min="39" max="39" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="11" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.5703125" customWidth="1"/>
-    <col min="54" max="55" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.5703125" customWidth="1"/>
-    <col min="58" max="58" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.5546875" customWidth="1"/>
+    <col min="54" max="55" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5546875" customWidth="1"/>
+    <col min="58" max="58" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>1.2202930379305201E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>-8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>-3.8660865100221902E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>-1.9327474715308001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>-1.4417931501017399E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>-1.12473916113937E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>2.3925804718135501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>-3.9259741337290899E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>-2.33816739596477E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>-8.8609763898676308E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>-1.47954591400331E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>1.39951473667291E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>-2.6635132963442599E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>-2.2667263542130101E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>-1.16842052374239E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>6.4607279333343398E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>-7.47764467555459E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>2.1698703442312901E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>-1.8328118725666899E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>-1.0277915121775999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>-8.4430887560658797E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>-2.6811322007523099E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>-2.21959649385879E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>-4.2308449513313896E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>1.2599921475406801E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>2.74121882701123E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>-2.0126779952579499E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8338,7 +8341,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8514,7 +8517,7 @@
         <v>1.5010315566622299E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>2.23281399368589E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>1.6655093449259299E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9042,7 +9045,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>-2.5109919584691599E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>1.6849494642342699E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>-3.6097202371508298E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9922,7 +9925,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10098,7 +10101,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>-2.3797513480576502E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>-2.65889916380724E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B61" s="21" t="s">
         <v>60</v>
       </c>
@@ -11175,17 +11178,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FB10C5-143C-456D-991F-52E75EB84DD5}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>62</v>
       </c>
@@ -11193,7 +11196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -11201,7 +11204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
@@ -11209,7 +11212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
@@ -11233,7 +11236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
@@ -11241,7 +11244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
@@ -11265,7 +11268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
@@ -11281,7 +11284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
@@ -11297,7 +11300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>16</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>19</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
@@ -11353,15 +11356,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>23</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>24</v>
       </c>
@@ -11377,7 +11380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>26</v>
       </c>
@@ -11393,7 +11396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>27</v>
       </c>
@@ -11401,7 +11404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>28</v>
       </c>
@@ -11409,7 +11412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>29</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>30</v>
       </c>
@@ -11425,7 +11428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>31</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>32</v>
       </c>
@@ -11441,7 +11444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>33</v>
       </c>
@@ -11449,7 +11452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>35</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>36</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>37</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>38</v>
       </c>
@@ -11489,7 +11492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>39</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>40</v>
       </c>
@@ -11505,7 +11508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>41</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>42</v>
       </c>
@@ -11521,7 +11524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>43</v>
       </c>
@@ -11529,7 +11532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>44</v>
       </c>
@@ -11537,7 +11540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>45</v>
       </c>
@@ -11545,79 +11548,79 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="26"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="26"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="26"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="26"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="26"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="26"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="26"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="26"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="26"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="26"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
         <v>59</v>
       </c>
